--- a/tests/csv_pipeline_test/output/DX56_D_FZ2_WR00_43.mapping-result.xlsx
+++ b/tests/csv_pipeline_test/output/DX56_D_FZ2_WR00_43.mapping-result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,30 +436,25 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Method Label Choice</t>
+          <t>Key</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Data Label Choice</t>
+          <t>Class type</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Method Label Match</t>
+          <t>Annotation</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Data Label Match</t>
+          <t>Data Individuals</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Data Individuals</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Method Individuals</t>
         </is>
@@ -471,26 +466,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AbsoluteCrossheadTravel</t>
+          <t>Prüfinstitut</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bemerkung</t>
+          <t>TestingFacility</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TestingFacility</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Prüfinstitut</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://tensile-test-method.org#TestingFacility</t>
         </is>
@@ -502,34 +492,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DisplacementTransducer</t>
+          <t>Projektnummer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Datum/Uhrzeit</t>
+          <t>https://w3id.org/steel/ProcessOntology/ProjectNumber</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ProjectNumber</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Projektnummer</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>http://www.test2.de/metadata-1</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#ProjectNumber</t>
-        </is>
-      </c>
+          <t>http://www.test2.de/ProjectNumber</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,34 +518,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extension</t>
+          <t>Projektname</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kraftaufnehmer</t>
+          <t>https://w3id.org/steel/ProcessOntology/ProjectName</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ProjectName</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Projektname</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>http://www.test2.de/metadata-2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#ProjectName</t>
-        </is>
-      </c>
+          <t>http://www.test2.de/ProjectName</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -572,34 +544,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ForceMeasuringDevice</t>
+          <t>Datum/Uhrzeit</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Maschinendaten</t>
+          <t>https://w3id.org/steel/ProcessOntology/TimeStamp</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TimeStamp</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Datum/Uhrzeit</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>http://www.test2.de/metadata-3</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#TimeStamp</t>
-        </is>
-      </c>
+          <t>http://www.test2.de/TimeStamp</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -607,34 +570,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MachineData</t>
+          <t>Maschinendaten</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Messl�nge Standardweg</t>
+          <t>https://w3id.org/steel/ProcessOntology/MachineData</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MachineData</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Maschinendaten</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>http://www.test2.de/metadata-4</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#MachineData</t>
-        </is>
-      </c>
+          <t>http://www.test2.de/MachineData</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -642,34 +596,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>Kraftaufnehmer</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>https://w3id.org/steel/ProcessOntology/ForceMeasuringDevice</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ForceMeasuringDevice</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Kraftaufnehmer</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>http://www.test2.de/metadata-5</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#ForceMeasuringDevice</t>
-        </is>
-      </c>
+          <t>http://www.test2.de/ForceMeasuringDevice</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -677,34 +622,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OriginalGaugeLength</t>
+          <t>Wegaufnehmer</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Probenbreite</t>
+          <t>https://w3id.org/steel/ProcessOntology/DisplacementTransducer</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DisplacementTransducer</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Wegaufnehmer</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>http://www.test2.de/metadata-6</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#DisplacementTransducer</t>
-        </is>
-      </c>
+          <t>http://www.test2.de/DisplacementTransducer</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -712,30 +648,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ParallelLength</t>
+          <t>Prüfnorm</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Probendicke</t>
+          <t>https://w3id.org/steel/ProcessOntology/TestStandard</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TestStandard</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Prüfnorm</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#TestStandard</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -743,34 +670,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PercentageElongation</t>
+          <t>Werkstoff</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Probenkennung 2</t>
+          <t>https://w3id.org/steel/ProcessOntology/Material</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>https://w3id.org/steel/ProcessOntology</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Werkstoff</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>http://www.test2.de/metadata-8</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#Material</t>
-        </is>
-      </c>
+          <t>http://www.test2.de/Material</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -778,34 +696,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Preload</t>
+          <t>Probentyp</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Probentyp</t>
+          <t>https://w3id.org/steel/ProcessOntology/SpecimenType</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SpecimenType</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Probentyp</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>http://www.test2.de/metadata-9</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#SpecimenType</t>
-        </is>
-      </c>
+          <t>http://www.test2.de/SpecimenType</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -813,30 +722,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ProjectName</t>
+          <t>Prüfer</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Projektname</t>
+          <t>https://w3id.org/steel/ProcessOntology/Tester</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tester</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Prüfer</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#Tester</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -844,30 +744,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ProjectNumber</t>
+          <t>Probenkennung 2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Projektnummer</t>
+          <t>https://w3id.org/steel/ProcessOntology/SampleIdentifier-2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SampleIdentifier-2</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Probenkennung 2</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>http://www.test2.de/metadata-11</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>http://www.test2.de/SampleIdentifier-2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -875,30 +770,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Remark</t>
+          <t>Messlänge Standardweg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pr�fer</t>
+          <t>https://w3id.org/steel/ProcessOntology/OriginalGaugeLength</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>OriginalGaugeLength</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Messlänge Standardweg</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#OriginalGaugeLength</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -906,30 +792,21 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SpecimenID</t>
+          <t>Versuchslänge</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Pr�fgeschwindigkeit</t>
+          <t>https://w3id.org/steel/ProcessOntology/ParallelLength</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ParallelLength</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Versuchslänge</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#ParallelLength</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -937,34 +814,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SpecimenThickness</t>
+          <t>Probendicke</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pr�finstitut</t>
+          <t>https://w3id.org/steel/ProcessOntology/SpecimenThickness</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SpecimenThickness</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Probendicke</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>http://www.test2.de/metadata-14</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#SpecimenThickness</t>
-        </is>
-      </c>
+          <t>http://www.test2.de/SpecimenThickness</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -972,34 +840,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SpecimenType</t>
+          <t>Probenbreite</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pr�fnorm</t>
+          <t>https://w3id.org/steel/ProcessOntology/SpecimenWidth</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SpecimenWidth</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Probenbreite</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>http://www.test2.de/metadata-15</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#SpecimenWidth</t>
-        </is>
-      </c>
+          <t>http://www.test2.de/SpecimenWidth</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1007,30 +866,21 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SpecimenWidth</t>
+          <t>Prüfgeschwindigkeit</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Temperatur</t>
+          <t>https://w3id.org/steel/ProcessOntology/TestingRate</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TestingRate</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Prüfgeschwindigkeit</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#TestingRate</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1038,34 +888,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>StandardForce</t>
+          <t>Vorkraft</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Versuchsl�nge</t>
+          <t>https://w3id.org/steel/ProcessOntology/Preload</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Preload</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Vorkraft</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>http://www.test2.de/metadata-17</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#Preload</t>
-        </is>
-      </c>
+          <t>http://www.test2.de/Preload</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1073,34 +914,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Vorkraft</t>
+          <t>https://w3id.org/steel/ProcessOntology/Temperature</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Temperatur</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>http://www.test2.de/metadata-18</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#Temperature</t>
-        </is>
-      </c>
+          <t>http://www.test2.de/Temperature</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1108,34 +940,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TensileTestExperiment</t>
+          <t>Bemerkung</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Wegaufnehmer</t>
+          <t>https://w3id.org/steel/ProcessOntology/Remark</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Remark</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Bemerkung</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>http://www.test2.de/metadata-19</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#Remark</t>
-        </is>
-      </c>
+          <t>http://www.test2.de/Remark</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1143,30 +966,21 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TensileTestSpecimen</t>
+          <t>Prüfzeit</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Werkstoff</t>
+          <t>https://w3id.org/steel/ProcessOntology/TestTime</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TestTime</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Prüfzeit</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#TestTime</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1174,30 +988,21 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TensileTestingMachine</t>
+          <t>Standardkraft</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>mm</t>
+          <t>https://w3id.org/steel/ProcessOntology/StandardForce</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>StandardForce</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Standardkraft</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#StandardForce</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1205,30 +1010,21 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TestStandard</t>
+          <t>Traversenweg absolut</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>mm.1</t>
+          <t>https://w3id.org/steel/ProcessOntology/AbsoluteCrossheadTravel</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AbsoluteCrossheadTravel</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Traversenweg absolut</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#AbsoluteCrossheadTravel</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1236,30 +1032,21 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TestTime</t>
+          <t>Standardweg</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>mm.2</t>
+          <t>https://w3id.org/steel/ProcessOntology/Extension</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Extension</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Standardweg</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#Extension</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1267,30 +1054,21 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tester</t>
+          <t>Breitenänderung</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>mm.3</t>
+          <t>https://w3id.org/steel/ProcessOntology/WidthChange</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>WidthChange</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Breitenänderung</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#WidthChange</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1298,111 +1076,21 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TestingFacility</t>
+          <t>Dehnung</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>https://w3id.org/steel/ProcessOntology/PercentageElongation</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PercentageElongation</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Dehnung</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>http://tensile-test-method.org#PercentageElongation</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>TestingRate</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>TimeStamp</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>WidthChange</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
